--- a/2024-02-11 10:45:19.5855.xlsx
+++ b/2024-02-11 10:45:19.5855.xlsx
@@ -891,6 +891,258 @@
         <v>75</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
